--- a/mosip_master/xlsx/blacklisted_words.xlsx
+++ b/mosip_master/xlsx/blacklisted_words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t xml:space="preserve">bon sang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القرف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلمة في القائمة السوداء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اللعنة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نيغا</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +192,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -196,14 +215,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -330,6 +351,62 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/blacklisted_words.xlsx
+++ b/mosip_master/xlsx/blacklisted_words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,21 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">bon sang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القرف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كلمة في القائمة السوداء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اللعنة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نيغا</t>
   </si>
 </sst>
 </file>
@@ -173,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,10 +177,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -215,16 +196,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:C13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -351,62 +330,6 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
